--- a/Experiments/inverted_coordination/en/coord_inversion.xlsx
+++ b/Experiments/inverted_coordination/en/coord_inversion.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr date1904="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="11960"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
-  <si>
-    <t>what</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="85">
   <si>
     <t>det1</t>
   </si>
@@ -261,35 +265,38 @@
   </si>
   <si>
     <t>jobs</t>
+  </si>
+  <si>
+    <t>prefix</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vsg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vpl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="10"/>
-      <color indexed="8"/>
+      <sz val="9"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
@@ -332,49 +339,102 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="001FB714"/>
+      <rgbColor rgb="000000D4"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -576,7 +636,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -595,7 +655,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -625,7 +685,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -651,7 +711,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -677,7 +737,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -703,7 +763,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -729,7 +789,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -755,7 +815,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -781,7 +841,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -807,7 +867,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -833,7 +893,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -846,9 +906,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -865,7 +931,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -884,7 +950,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -910,7 +976,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -936,7 +1002,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -962,7 +1028,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -988,7 +1054,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1014,7 +1080,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1040,7 +1106,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1066,7 +1132,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1092,7 +1158,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1118,7 +1184,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1131,9 +1197,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1147,7 +1219,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1166,7 +1238,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1196,7 +1268,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1222,7 +1294,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1248,7 +1320,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1274,7 +1346,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1300,7 +1372,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1326,7 +1398,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1352,7 +1424,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1378,7 +1450,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1404,7 +1476,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1417,1031 +1489,1038 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:IV38"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.3516" style="1" customWidth="1"/>
-    <col min="9" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="256" width="16.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.05" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:8" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" ht="20.05" customHeight="1">
-      <c r="A2" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s" s="3">
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s" s="3">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s" s="3">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s" s="3">
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="H4" t="s" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s" s="3">
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="E5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="H5" t="s" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s" s="3">
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s" s="3">
+      <c r="E6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="H6" t="s" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s" s="3">
+      <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s" s="3">
+      <c r="E7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E7" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="H7" t="s" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s" s="3">
+      <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s" s="3">
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="G8" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="H8" t="s" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s" s="3">
+      <c r="D9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s" s="3">
+      <c r="E9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E9" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="F9" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="G9" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="H9" t="s" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s" s="3">
+      <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s" s="3">
+      <c r="E10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E10" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="G10" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="H10" t="s" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s" s="3">
+      <c r="D11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D11" t="s" s="3">
+      <c r="E11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E11" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="G11" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="H11" t="s" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s" s="3">
+      <c r="D12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D12" t="s" s="3">
+      <c r="E12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E12" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="G12" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="H12" t="s" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s" s="3">
+      <c r="D13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D13" t="s" s="3">
+      <c r="E13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E13" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="G13" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="H13" t="s" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s" s="3">
+      <c r="D14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D14" t="s" s="3">
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E14" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="G14" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="H14" t="s" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s" s="3">
+      <c r="D15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D15" t="s" s="3">
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E15" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="F15" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="G15" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="H15" t="s" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s" s="3">
+      <c r="D16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D16" t="s" s="3">
+      <c r="E16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="20" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E16" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="F16" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="G16" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="H16" t="s" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s" s="3">
+      <c r="D17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D17" t="s" s="3">
+      <c r="E17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="20" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E17" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="F17" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="G17" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="H17" t="s" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s" s="3">
+      <c r="D18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D18" t="s" s="3">
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="20" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E18" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="F18" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="G18" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="H18" t="s" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s" s="3">
+      <c r="D19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D19" t="s" s="3">
+      <c r="E19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="20" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E19" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="F19" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="G19" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="H19" t="s" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s" s="3">
+      <c r="D20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D20" t="s" s="3">
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="20" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E20" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="F20" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="G20" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="H20" t="s" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s" s="3">
+      <c r="D21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D21" t="s" s="3">
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="20" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E21" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="F21" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="G21" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="H21" t="s" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s" s="3">
+      <c r="D22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D22" t="s" s="3">
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="20" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E22" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="F22" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="G22" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="H22" t="s" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s" s="3">
+      <c r="D23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D23" t="s" s="3">
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="20" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E23" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="F23" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="G23" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="H23" t="s" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s" s="3">
+      <c r="D24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D24" t="s" s="3">
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="20" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E24" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="F24" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="G24" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="H24" t="s" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s" s="3">
+      <c r="D25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D25" t="s" s="3">
+      <c r="E25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="20" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E25" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="F25" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="G25" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="H25" t="s" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s" s="3">
+      <c r="D26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="20" customHeight="1">
+      <c r="A27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D26" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="E26" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="F26" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="G26" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="H26" t="s" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="B27" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s" s="3">
+      <c r="D27" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D27" t="s" s="3">
+      <c r="E27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="20" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E27" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="F27" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="G27" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="H27" t="s" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="B28" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s" s="3">
+      <c r="D28" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D28" t="s" s="3">
+      <c r="E28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="20" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E28" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="F28" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="G28" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="H28" t="s" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="B29" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C29" t="s" s="3">
+      <c r="D29" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D29" t="s" s="3">
+      <c r="E29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="20" customHeight="1">
+      <c r="A30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E29" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="F29" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="G29" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="H29" t="s" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="B30" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s" s="3">
+      <c r="D30" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D30" t="s" s="3">
+      <c r="E30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="20" customHeight="1">
+      <c r="A31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E30" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="F30" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="G30" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="H30" t="s" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="B31" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C31" t="s" s="3">
+      <c r="D31" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D31" t="s" s="3">
+      <c r="E31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="20" customHeight="1">
+      <c r="A32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E31" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="F31" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="G31" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="H31" t="s" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="B32" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s" s="3">
+      <c r="D32" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D32" t="s" s="3">
+      <c r="E32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="20" customHeight="1">
+      <c r="A33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E32" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" t="s" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="B33" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C33" t="s" s="3">
+      <c r="D33" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D33" t="s" s="3">
+      <c r="E33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="20" customHeight="1">
+      <c r="A34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E33" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="F33" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="G33" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="H33" t="s" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="B34" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C34" t="s" s="3">
+      <c r="D34" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D34" t="s" s="3">
+      <c r="E34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="20" customHeight="1">
+      <c r="A35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E34" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="F34" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="G34" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="H34" t="s" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="B35" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C35" t="s" s="3">
+      <c r="D35" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D35" t="s" s="3">
+      <c r="E35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="20" customHeight="1">
+      <c r="A36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E35" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="F35" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="G35" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="H35" t="s" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="B36" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C36" t="s" s="3">
+      <c r="D36" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D36" t="s" s="3">
+      <c r="E36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="20" customHeight="1">
+      <c r="A37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E36" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="F36" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="G36" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="H36" t="s" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="B37" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C37" t="s" s="3">
+      <c r="D37" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D37" t="s" s="3">
+      <c r="E37" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="20" customHeight="1">
+      <c r="A38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E37" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="F37" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="G37" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="H37" t="s" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="B38" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C38" t="s" s="3">
+      <c r="D38" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D38" t="s" s="3">
-        <v>82</v>
-      </c>
-      <c r="E38" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="F38" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="G38" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="H38" t="s" s="3">
-        <v>7</v>
+      <c r="E38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>